--- a/坐标测试文件/test-xy - 成本.xlsx
+++ b/坐标测试文件/test-xy - 成本.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\服务外包\提交文档\1903992-微逻辑-【A12】基于算法的配送路线优化系统【华云+中诺思】-项目测试案例\坐标测试文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GithubRepositories\new_Delivery\坐标测试文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F819C2-0D2F-4648-8904-DD5CADEF74CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B6735C-04DB-4358-84BA-2BCBD0A5B727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -594,10 +594,10 @@
         <v>50</v>
       </c>
       <c r="M2" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" s="5">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="O2" s="5">
         <v>24</v>

--- a/坐标测试文件/test-xy - 成本.xlsx
+++ b/坐标测试文件/test-xy - 成本.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GithubRepositories\new_Delivery\坐标测试文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\VSCode Workplace\new_Delivery\坐标测试文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B6735C-04DB-4358-84BA-2BCBD0A5B727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E12BAF8-1C77-4E88-B9BC-67664937F080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2076" yWindow="2712" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="节点信息" sheetId="1" r:id="rId1"/>
+    <sheet name="车辆信息" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -500,19 +501,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="22.75" customWidth="1"/>
-    <col min="12" max="15" width="23.875" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="22.77734375" customWidth="1"/>
+    <col min="12" max="15" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -537,32 +538,8 @@
       <c r="H1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -581,32 +558,8 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="5">
-        <v>8</v>
-      </c>
-      <c r="K2" s="5">
-        <v>5</v>
-      </c>
-      <c r="L2" s="5">
-        <v>50</v>
-      </c>
-      <c r="M2" s="5">
-        <v>100</v>
-      </c>
-      <c r="N2" s="5">
-        <v>2</v>
-      </c>
-      <c r="O2" s="5">
-        <v>24</v>
-      </c>
-      <c r="P2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -634,7 +587,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -655,7 +608,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -676,7 +629,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -697,7 +650,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -718,7 +671,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -739,7 +692,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -760,7 +713,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -781,7 +734,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -802,7 +755,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -823,7 +776,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -844,7 +797,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -865,7 +818,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -886,7 +839,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -907,7 +860,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -928,7 +881,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -949,7 +902,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -970,7 +923,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -991,7 +944,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1011,6 +964,75 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729B9FA4-8FB6-4587-9D30-CD14567CB9A2}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>50</v>
+      </c>
+      <c r="E2" s="5">
+        <v>100</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>24</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
